--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.588123</v>
+        <v>20.268639</v>
       </c>
       <c r="H2">
-        <v>94.76436899999999</v>
+        <v>60.80591700000001</v>
       </c>
       <c r="I2">
-        <v>0.1477436777967832</v>
+        <v>0.09537690375401175</v>
       </c>
       <c r="J2">
-        <v>0.1477436777967832</v>
+        <v>0.09537690375401174</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04793733333333333</v>
+        <v>0.002302</v>
       </c>
       <c r="N2">
-        <v>0.143812</v>
+        <v>0.006906</v>
       </c>
       <c r="O2">
-        <v>0.1216498333587102</v>
+        <v>0.002384587814362636</v>
       </c>
       <c r="P2">
-        <v>0.1216498333587102</v>
+        <v>0.002384587814362636</v>
       </c>
       <c r="Q2">
-        <v>1.514250381625333</v>
+        <v>0.04665840697800001</v>
       </c>
       <c r="R2">
-        <v>13.628253434628</v>
+        <v>0.4199256628020001</v>
       </c>
       <c r="S2">
-        <v>0.01797299378378164</v>
+        <v>0.0002274346024634543</v>
       </c>
       <c r="T2">
-        <v>0.01797299378378164</v>
+        <v>0.0002274346024634543</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.588123</v>
+        <v>20.268639</v>
       </c>
       <c r="H3">
-        <v>94.76436899999999</v>
+        <v>60.80591700000001</v>
       </c>
       <c r="I3">
-        <v>0.1477436777967832</v>
+        <v>0.09537690375401175</v>
       </c>
       <c r="J3">
-        <v>0.1477436777967832</v>
+        <v>0.09537690375401174</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02014166666666667</v>
+        <v>0.01379866666666667</v>
       </c>
       <c r="N3">
-        <v>0.060425</v>
+        <v>0.041396</v>
       </c>
       <c r="O3">
-        <v>0.05111319765179583</v>
+        <v>0.01429371519886413</v>
       </c>
       <c r="P3">
-        <v>0.05111319765179583</v>
+        <v>0.01429371519886413</v>
       </c>
       <c r="Q3">
-        <v>0.6362374440916665</v>
+        <v>0.2796801933480001</v>
       </c>
       <c r="R3">
-        <v>5.726136996824999</v>
+        <v>2.517121740132001</v>
       </c>
       <c r="S3">
-        <v>0.007551651805030218</v>
+        <v>0.001363290298809319</v>
       </c>
       <c r="T3">
-        <v>0.007551651805030218</v>
+        <v>0.001363290298809319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.588123</v>
+        <v>20.268639</v>
       </c>
       <c r="H4">
-        <v>94.76436899999999</v>
+        <v>60.80591700000001</v>
       </c>
       <c r="I4">
-        <v>0.1477436777967832</v>
+        <v>0.09537690375401175</v>
       </c>
       <c r="J4">
-        <v>0.1477436777967832</v>
+        <v>0.09537690375401174</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.325981</v>
+        <v>0.9492653333333333</v>
       </c>
       <c r="N4">
-        <v>0.977943</v>
+        <v>2.847796</v>
       </c>
       <c r="O4">
-        <v>0.8272369689894939</v>
+        <v>0.9833216969867733</v>
       </c>
       <c r="P4">
-        <v>0.8272369689894939</v>
+        <v>0.9833216969867732</v>
       </c>
       <c r="Q4">
-        <v>10.297127923663</v>
+        <v>19.240316356548</v>
       </c>
       <c r="R4">
-        <v>92.67415131296698</v>
+        <v>173.162847208932</v>
       </c>
       <c r="S4">
-        <v>0.1222190322079713</v>
+        <v>0.09378617885273899</v>
       </c>
       <c r="T4">
-        <v>0.1222190322079713</v>
+        <v>0.09378617885273896</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>383.223061</v>
       </c>
       <c r="I5">
-        <v>0.5974691231118839</v>
+        <v>0.6011031624655011</v>
       </c>
       <c r="J5">
-        <v>0.5974691231118839</v>
+        <v>0.601103162465501</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04793733333333333</v>
+        <v>0.002302</v>
       </c>
       <c r="N5">
-        <v>0.143812</v>
+        <v>0.006906</v>
       </c>
       <c r="O5">
-        <v>0.1216498333587102</v>
+        <v>0.002384587814362636</v>
       </c>
       <c r="P5">
-        <v>0.1216498333587102</v>
+        <v>0.002384587814362636</v>
       </c>
       <c r="Q5">
-        <v>6.123563872059111</v>
+        <v>0.2940598288073333</v>
       </c>
       <c r="R5">
-        <v>55.112074848532</v>
+        <v>2.646538459266</v>
       </c>
       <c r="S5">
-        <v>0.07268201926353537</v>
+        <v>0.001433383276390078</v>
       </c>
       <c r="T5">
-        <v>0.07268201926353537</v>
+        <v>0.001433383276390077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>383.223061</v>
       </c>
       <c r="I6">
-        <v>0.5974691231118839</v>
+        <v>0.6011031624655011</v>
       </c>
       <c r="J6">
-        <v>0.5974691231118839</v>
+        <v>0.601103162465501</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02014166666666667</v>
+        <v>0.01379866666666667</v>
       </c>
       <c r="N6">
-        <v>0.060425</v>
+        <v>0.041396</v>
       </c>
       <c r="O6">
-        <v>0.05111319765179583</v>
+        <v>0.01429371519886413</v>
       </c>
       <c r="P6">
-        <v>0.05111319765179583</v>
+        <v>0.01429371519886413</v>
       </c>
       <c r="Q6">
-        <v>2.572917051213889</v>
+        <v>1.762655759239556</v>
       </c>
       <c r="R6">
-        <v>23.156253460925</v>
+        <v>15.863901833156</v>
       </c>
       <c r="S6">
-        <v>0.03053855738046286</v>
+        <v>0.008591997409418427</v>
       </c>
       <c r="T6">
-        <v>0.03053855738046286</v>
+        <v>0.008591997409418425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>383.223061</v>
       </c>
       <c r="I7">
-        <v>0.5974691231118839</v>
+        <v>0.6011031624655011</v>
       </c>
       <c r="J7">
-        <v>0.5974691231118839</v>
+        <v>0.601103162465501</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.325981</v>
+        <v>0.9492653333333333</v>
       </c>
       <c r="N7">
-        <v>0.977943</v>
+        <v>2.847796</v>
       </c>
       <c r="O7">
-        <v>0.8272369689894939</v>
+        <v>0.9833216969867733</v>
       </c>
       <c r="P7">
-        <v>0.8272369689894939</v>
+        <v>0.9833216969867732</v>
       </c>
       <c r="Q7">
-        <v>41.64114554928034</v>
+        <v>121.2601222470618</v>
       </c>
       <c r="R7">
-        <v>374.770309943523</v>
+        <v>1091.341100223556</v>
       </c>
       <c r="S7">
-        <v>0.4942485464678857</v>
+        <v>0.5910777817796926</v>
       </c>
       <c r="T7">
-        <v>0.4942485464678857</v>
+        <v>0.5910777817796925</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.62302866666666</v>
+        <v>42.02733833333333</v>
       </c>
       <c r="H8">
-        <v>73.86908599999998</v>
+        <v>126.082015</v>
       </c>
       <c r="I8">
-        <v>0.1151666027674058</v>
+        <v>0.1977654939365007</v>
       </c>
       <c r="J8">
-        <v>0.1151666027674058</v>
+        <v>0.1977654939365007</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.04793733333333333</v>
+        <v>0.002302</v>
       </c>
       <c r="N8">
-        <v>0.143812</v>
+        <v>0.006906</v>
       </c>
       <c r="O8">
-        <v>0.1216498333587102</v>
+        <v>0.002384587814362636</v>
       </c>
       <c r="P8">
-        <v>0.1216498333587102</v>
+        <v>0.002384587814362636</v>
       </c>
       <c r="Q8">
-        <v>1.180362332870222</v>
+        <v>0.09674693284333331</v>
       </c>
       <c r="R8">
-        <v>10.623260995832</v>
+        <v>0.8707223955899999</v>
       </c>
       <c r="S8">
-        <v>0.01400999803514369</v>
+        <v>0.0004715891869423872</v>
       </c>
       <c r="T8">
-        <v>0.01400999803514369</v>
+        <v>0.0004715891869423872</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.62302866666666</v>
+        <v>42.02733833333333</v>
       </c>
       <c r="H9">
-        <v>73.86908599999998</v>
+        <v>126.082015</v>
       </c>
       <c r="I9">
-        <v>0.1151666027674058</v>
+        <v>0.1977654939365007</v>
       </c>
       <c r="J9">
-        <v>0.1151666027674058</v>
+        <v>0.1977654939365007</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02014166666666667</v>
+        <v>0.01379866666666667</v>
       </c>
       <c r="N9">
-        <v>0.060425</v>
+        <v>0.041396</v>
       </c>
       <c r="O9">
-        <v>0.05111319765179583</v>
+        <v>0.01429371519886413</v>
       </c>
       <c r="P9">
-        <v>0.05111319765179583</v>
+        <v>0.01429371519886413</v>
       </c>
       <c r="Q9">
-        <v>0.4959488357277776</v>
+        <v>0.5799212325488888</v>
       </c>
       <c r="R9">
-        <v>4.463539521549999</v>
+        <v>5.21929109294</v>
       </c>
       <c r="S9">
-        <v>0.005886533330136271</v>
+        <v>0.002826803646491031</v>
       </c>
       <c r="T9">
-        <v>0.005886533330136271</v>
+        <v>0.002826803646491031</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.62302866666666</v>
+        <v>42.02733833333333</v>
       </c>
       <c r="H10">
-        <v>73.86908599999998</v>
+        <v>126.082015</v>
       </c>
       <c r="I10">
-        <v>0.1151666027674058</v>
+        <v>0.1977654939365007</v>
       </c>
       <c r="J10">
-        <v>0.1151666027674058</v>
+        <v>0.1977654939365007</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.325981</v>
+        <v>0.9492653333333333</v>
       </c>
       <c r="N10">
-        <v>0.977943</v>
+        <v>2.847796</v>
       </c>
       <c r="O10">
-        <v>0.8272369689894939</v>
+        <v>0.9833216969867733</v>
       </c>
       <c r="P10">
-        <v>0.8272369689894939</v>
+        <v>0.9833216969867732</v>
       </c>
       <c r="Q10">
-        <v>8.026639507788666</v>
+        <v>39.89509533210443</v>
       </c>
       <c r="R10">
-        <v>72.23975557009798</v>
+        <v>359.0558579889399</v>
       </c>
       <c r="S10">
-        <v>0.09527007140212586</v>
+        <v>0.1944671011030673</v>
       </c>
       <c r="T10">
-        <v>0.09527007140212586</v>
+        <v>0.1944671011030673</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.85137933333333</v>
+        <v>22.47397933333333</v>
       </c>
       <c r="H11">
-        <v>89.55413799999999</v>
+        <v>67.421938</v>
       </c>
       <c r="I11">
-        <v>0.139620596323927</v>
+        <v>0.1057544398439867</v>
       </c>
       <c r="J11">
-        <v>0.139620596323927</v>
+        <v>0.1057544398439867</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.04793733333333333</v>
+        <v>0.002302</v>
       </c>
       <c r="N11">
-        <v>0.143812</v>
+        <v>0.006906</v>
       </c>
       <c r="O11">
-        <v>0.1216498333587102</v>
+        <v>0.002384587814362636</v>
       </c>
       <c r="P11">
-        <v>0.1216498333587102</v>
+        <v>0.002384587814362636</v>
       </c>
       <c r="Q11">
-        <v>1.430995521561778</v>
+        <v>0.05173510042533332</v>
       </c>
       <c r="R11">
-        <v>12.878959694056</v>
+        <v>0.4656159038279999</v>
       </c>
       <c r="S11">
-        <v>0.01698482227624946</v>
+        <v>0.000252180748566717</v>
       </c>
       <c r="T11">
-        <v>0.01698482227624946</v>
+        <v>0.000252180748566717</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.85137933333333</v>
+        <v>22.47397933333333</v>
       </c>
       <c r="H12">
-        <v>89.55413799999999</v>
+        <v>67.421938</v>
       </c>
       <c r="I12">
-        <v>0.139620596323927</v>
+        <v>0.1057544398439867</v>
       </c>
       <c r="J12">
-        <v>0.139620596323927</v>
+        <v>0.1057544398439867</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.02014166666666667</v>
+        <v>0.01379866666666667</v>
       </c>
       <c r="N12">
-        <v>0.060425</v>
+        <v>0.041396</v>
       </c>
       <c r="O12">
-        <v>0.05111319765179583</v>
+        <v>0.01429371519886413</v>
       </c>
       <c r="P12">
-        <v>0.05111319765179583</v>
+        <v>0.01429371519886413</v>
       </c>
       <c r="Q12">
-        <v>0.6012565320722221</v>
+        <v>0.3101109494942222</v>
       </c>
       <c r="R12">
-        <v>5.41130878865</v>
+        <v>2.790998545448</v>
       </c>
       <c r="S12">
-        <v>0.007136455136166477</v>
+        <v>0.001511623844145355</v>
       </c>
       <c r="T12">
-        <v>0.007136455136166477</v>
+        <v>0.001511623844145354</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.85137933333333</v>
+        <v>22.47397933333333</v>
       </c>
       <c r="H13">
-        <v>89.55413799999999</v>
+        <v>67.421938</v>
       </c>
       <c r="I13">
-        <v>0.139620596323927</v>
+        <v>0.1057544398439867</v>
       </c>
       <c r="J13">
-        <v>0.139620596323927</v>
+        <v>0.1057544398439867</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.325981</v>
+        <v>0.9492653333333333</v>
       </c>
       <c r="N13">
-        <v>0.977943</v>
+        <v>2.847796</v>
       </c>
       <c r="O13">
-        <v>0.8272369689894939</v>
+        <v>0.9833216969867733</v>
       </c>
       <c r="P13">
-        <v>0.8272369689894939</v>
+        <v>0.9833216969867732</v>
       </c>
       <c r="Q13">
-        <v>9.730982486459332</v>
+        <v>21.33376948318311</v>
       </c>
       <c r="R13">
-        <v>87.578842378134</v>
+        <v>192.003925348648</v>
       </c>
       <c r="S13">
-        <v>0.115499318911511</v>
+        <v>0.1039906352512746</v>
       </c>
       <c r="T13">
-        <v>0.115499318911511</v>
+        <v>0.1039906352512746</v>
       </c>
     </row>
   </sheetData>
